--- a/relatorios/repasses_liberados/dentistas/02850061425/2023-08-25_relatorio_repasses_02850061425.xlsx
+++ b/relatorios/repasses_liberados/dentistas/02850061425/2023-08-25_relatorio_repasses_02850061425.xlsx
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N50">
         <v>0</v>
